--- a/remote-results/results/cohen/cohen-results.xlsx
+++ b/remote-results/results/cohen/cohen-results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB379F-D9F3-45AD-AC59-8E788EB972DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734C1DE-AF5E-49E8-933B-09162EA093CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="7008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6433,7 +6433,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9097,7 +9097,7 @@
         <v>94.252197265625</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F129" si="9">E98*E98</f>
+        <f t="shared" ref="F98:F101" si="9">E98*E98</f>
         <v>8883.4766893982887</v>
       </c>
       <c r="G98">

--- a/remote-results/results/cohen/cohen-results.xlsx
+++ b/remote-results/results/cohen/cohen-results.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734C1DE-AF5E-49E8-933B-09162EA093CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFD6A8E-6B84-498B-AB97-D1127F237A21}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="7008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
     <sheet name="split-0-counts" sheetId="1" r:id="rId2"/>
-    <sheet name="split-0-history" sheetId="2" r:id="rId3"/>
-    <sheet name="split-1-counts" sheetId="3" r:id="rId4"/>
-    <sheet name="split-1-history" sheetId="4" r:id="rId5"/>
-    <sheet name="split-2-counts" sheetId="5" r:id="rId6"/>
-    <sheet name="split-2-history" sheetId="6" r:id="rId7"/>
+    <sheet name="split-0-korrelation" sheetId="8" r:id="rId3"/>
+    <sheet name="split-0-history" sheetId="2" r:id="rId4"/>
+    <sheet name="split-1-counts" sheetId="3" r:id="rId5"/>
+    <sheet name="split-1-history" sheetId="4" r:id="rId6"/>
+    <sheet name="split-2-counts" sheetId="5" r:id="rId7"/>
+    <sheet name="split-2-history" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'split-0-counts'!$A$1:$G$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'split-0-history'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'split-1-counts'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'split-1-history'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'split-2-counts'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'split-2-history'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'split-0-counts'!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'split-0-history'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'split-1-counts'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'split-1-history'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'split-2-counts'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'split-2-history'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="126">
   <si>
     <t>pred count</t>
   </si>
@@ -102,6 +103,321 @@
   </si>
   <si>
     <t>Count-NMSE</t>
+  </si>
+  <si>
+    <t>Dateiname</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00133.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00145.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00487.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00127.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00559.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00469.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00151.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00157.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00571.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00277.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00235.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00259.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00367.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00361.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00589.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00205.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00421.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00565.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00349.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00175.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00529.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00301.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00325.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00619.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00607.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00199.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00169.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00667.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00595.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00211.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00391.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00415.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00397.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00313.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00583.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00481.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00139.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00379.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00433.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00643.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00541.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00295.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00373.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00523.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00337.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00661.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00631.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00115.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00385.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00181.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00097.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00241.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00499.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00535.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00439.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00355.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00223.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00163.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00613.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00283.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00103.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00517.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00457.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00091.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00319.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00625.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00217.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00289.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00445.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00601.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00247.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00307.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00265.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00547.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00403.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00553.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00493.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00463.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00655.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00331.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00253.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00409.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00229.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00343.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00679.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00649.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00673.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00685.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00475.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00451.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00109.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00505.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00187.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00121.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00577.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00193.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00637.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00511.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00427.jpg</t>
+  </si>
+  <si>
+    <t>/data/home/aroth/grape-case/data/A/frame00271.jpg</t>
+  </si>
+  <si>
+    <t>Ubuntu index</t>
+  </si>
+  <si>
+    <t>Windows index</t>
+  </si>
+  <si>
+    <t>Absolute Korrelation</t>
+  </si>
+  <si>
+    <t>Relative Korrelation</t>
   </si>
 </sst>
 </file>
@@ -276,7 +592,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'split-0-counts'!$C$2:$C$101</c:f>
+              <c:f>'split-0-counts'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -387,7 +703,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'split-0-counts'!$B$2:$B$101</c:f>
+              <c:f>'split-0-counts'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -537,7 +853,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'split-0-counts'!$C$2:$C$101</c:f>
+              <c:f>'split-0-counts'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -648,7 +964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'split-0-counts'!$C$2:$C$101</c:f>
+              <c:f>'split-0-counts'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1222,7 +1538,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'split-0-counts'!$B$2:$B$101</c:f>
+              <c:f>'split-0-counts'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1358,7 +1674,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'split-0-counts'!$C$2:$C$101</c:f>
+              <c:f>'split-0-counts'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1514,7 +1830,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Anzahl Beeren</a:t>
+                  <a:t>Bildindex</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2874,6 +3190,1975 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
+              <a:t>Zusammenhang zwischen Beeren pro Bild un der Abweichung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'split-0-counts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Absolute Abweichung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$D$4:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$F$4:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>51.39924621582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.651550292968011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.2744140625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4005737304690058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.880950927733977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0927734375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.817840576171022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.017120361328011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2220153808600003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.367065429686988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.436157226563012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.034057617186988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.24838256836</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.792877197265</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.743072509766023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.283874511718977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.377716064453011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.430114746093977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.877685546875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.356323242188012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.19564819336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173.13726806640699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.407897949218977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109.98910522461</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.326782226562955</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168.70178222656301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.993408203125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.78536987304699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.902099609375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>108.54437255859398</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.278991699218977</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>187.76312255859398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.782470703125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>271.10998535156295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2DD-49A1-842A-34470C5055E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="974124064"/>
+        <c:axId val="974122424"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'split-0-counts'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relative Abweichung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.45486058598070794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41304016113280856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11081798041044776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6416956166762533E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32328258576940155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8792521909594097E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3581884047561831E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0048915318080032E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4627494064033615E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0945682369719312E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8590393066407532E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6734132062036917E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24080485923617648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8763115115280489E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10131813715962627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1703757784532167E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2306126185825651E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3829154269030503E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4529727827682182E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11928127122962058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0526046170534354E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32915830430875853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12735394119122748</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18930999178074009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4746636284723E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28642068289739053</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1529496845446135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2213224464253645</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7078059792329092E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15075607299804719</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8538556059530274E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25756258238490259</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9551157849900269E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29629506595799232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F2DD-49A1-842A-34470C5055E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="974123736"/>
+        <c:axId val="974121768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="974124064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl der Beeren</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974122424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974122424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Absolute Abweichung</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974124064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974121768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Relative Abweichung</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974123736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974123736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="974121768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'split-0-counts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Absolute Abweichung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$D$4:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$F$4:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>51.39924621582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.651550292968011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.2744140625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4005737304690058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.880950927733977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0927734375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.817840576171022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.017120361328011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2220153808600003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.367065429686988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.436157226563012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.034057617186988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.24838256836</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.792877197265</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.743072509766023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.283874511718977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.377716064453011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.430114746093977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.877685546875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.356323242188012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.19564819336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173.13726806640699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.407897949218977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109.98910522461</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.326782226562955</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168.70178222656301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.993408203125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.78536987304699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.902099609375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>108.54437255859398</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.278991699218977</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>187.76312255859398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.782470703125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>271.10998535156295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5CC-4089-80C9-7EFFEDB2030F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="974124064"/>
+        <c:axId val="974122424"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'split-0-counts'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relative Abweichung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'split-0-counts'!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.45486058598070794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41304016113280856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11081798041044776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6416956166762533E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32328258576940155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8792521909594097E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3581884047561831E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0048915318080032E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4627494064033615E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0945682369719312E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8590393066407532E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6734132062036917E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24080485923617648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8763115115280489E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10131813715962627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1703757784532167E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2306126185825651E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3829154269030503E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4529727827682182E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11928127122962058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0526046170534354E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32915830430875853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12735394119122748</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18930999178074009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4746636284723E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28642068289739053</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1529496845446135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2213224464253645</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7078059792329092E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15075607299804719</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8538556059530274E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25756258238490259</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9551157849900269E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29629506595799232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5CC-4089-80C9-7EFFEDB2030F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="974123736"/>
+        <c:axId val="974121768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="974124064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974122424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974122424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974124064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974121768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974123736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974123736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="974121768"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>Fehler im Laufe der Epochen</a:t>
             </a:r>
           </a:p>
@@ -3904,6 +6189,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5492,6 +7857,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6056,9 +9453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>443138</xdr:colOff>
+      <xdr:colOff>398605</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>165458</xdr:rowOff>
+      <xdr:rowOff>66497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6094,9 +9491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>494400</xdr:colOff>
+      <xdr:colOff>449867</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>108655</xdr:rowOff>
+      <xdr:rowOff>9694</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6123,10 +9520,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102514</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160115</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3874460C-6BA1-45E2-B9A2-51F2C0EB241B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273423</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1693910-C6DB-48F1-BBC9-DD1EF3274EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6432,8 +9908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA873F37-3086-4353-BE9B-F74749E64FBF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6460,15 +9936,15 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>AVERAGEIF('split-0-counts'!D:D,"False",'split-0-counts'!E:E)</f>
+        <f>AVERAGEIF('split-0-counts'!E:E,"False",'split-0-counts'!F:F)</f>
         <v>63.694768120260903</v>
       </c>
       <c r="C2">
-        <f>SQRT(AVERAGEIF('split-0-counts'!D:D,"False",'split-0-counts'!F:F))</f>
+        <f>SQRT(AVERAGEIF('split-0-counts'!E:E,"False",'split-0-counts'!G:G))</f>
         <v>88.661943805954436</v>
       </c>
       <c r="D2">
-        <f>AVERAGEIFS('split-0-counts'!G:G,'split-0-counts'!D:D,"False",'split-0-counts'!C:C,"&gt;"&amp;0)</f>
+        <f>AVERAGEIFS('split-0-counts'!H:H,'split-0-counts'!E:E,"False",'split-0-counts'!D:D,"&gt;"&amp;0)</f>
         <v>0.13561968850592065</v>
       </c>
       <c r="E2">
@@ -6555,2650 +10031,3674 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="X96" sqref="X96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>362.43981933593699</v>
+      </c>
+      <c r="D2">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>ABS(C2-D2)</f>
+        <v>51.439819335936988</v>
+      </c>
+      <c r="G2">
+        <f>F2*F2</f>
+        <v>2646.0550133138368</v>
+      </c>
+      <c r="H2">
+        <f>F2/D2</f>
+        <v>0.16540134834706427</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>333.177001953125</v>
+      </c>
+      <c r="D3">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>ABS(C3-D3)</f>
+        <v>3.177001953125</v>
+      </c>
+      <c r="G3">
+        <f>F3*F3</f>
+        <v>10.093341410160065</v>
+      </c>
+      <c r="H3">
+        <f>F3/D3</f>
+        <v>9.6272786458333325E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>164.39924621582</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f>ABS(C4-D4)</f>
+        <v>51.39924621582</v>
+      </c>
+      <c r="G4">
+        <f>F4*F4</f>
+        <v>2641.8825115544864</v>
+      </c>
+      <c r="H4">
+        <f>F4/D4</f>
+        <v>0.45486058598070794</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>475.17660522460898</v>
+      </c>
+      <c r="D5">
+        <v>463</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>ABS(C5-D5)</f>
+        <v>12.176605224608977</v>
+      </c>
+      <c r="G5">
+        <f>F5*F5</f>
+        <v>148.26971479597464</v>
+      </c>
+      <c r="H5">
+        <f>F5/D5</f>
+        <v>2.6299363336088503E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>559.472900390625</v>
+      </c>
+      <c r="D6">
+        <v>542</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>ABS(C6-D6)</f>
+        <v>17.472900390625</v>
+      </c>
+      <c r="G6">
+        <f>F6*F6</f>
+        <v>305.30224806070328</v>
+      </c>
+      <c r="H6">
+        <f>F6/D6</f>
+        <v>3.2237823598939112E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>629.01373291015602</v>
+      </c>
+      <c r="D7">
+        <v>649</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f>ABS(C7-D7)</f>
+        <v>19.986267089843977</v>
+      </c>
+      <c r="G7">
+        <f>F7*F7</f>
+        <v>399.45087218658045</v>
+      </c>
+      <c r="H7">
+        <f>F7/D7</f>
+        <v>3.0795480878033864E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>352.176666259765</v>
+      </c>
+      <c r="D8">
+        <v>364</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>ABS(C8-D8)</f>
+        <v>11.823333740235</v>
+      </c>
+      <c r="G8">
+        <f>F8*F8</f>
+        <v>139.79122073297935</v>
+      </c>
+      <c r="H8">
+        <f>F8/D8</f>
+        <v>3.2481686099546707E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>358.540771484375</v>
+      </c>
+      <c r="D9">
+        <v>363</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>ABS(C9-D9)</f>
+        <v>4.459228515625</v>
+      </c>
+      <c r="G9">
+        <f>F9*F9</f>
+        <v>19.884718954563141</v>
+      </c>
+      <c r="H9">
+        <f>F9/D9</f>
+        <v>1.2284376076101928E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>567.32861328125</v>
+      </c>
+      <c r="D10">
+        <v>554</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f>ABS(C10-D10)</f>
+        <v>13.32861328125</v>
+      </c>
+      <c r="G10">
+        <f>F10*F10</f>
+        <v>177.65193200111389</v>
+      </c>
+      <c r="H10">
+        <f>F10/D10</f>
+        <v>2.405886873871841E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>316.40911865234301</v>
+      </c>
+      <c r="D11">
+        <v>297</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f>ABS(C11-D11)</f>
+        <v>19.409118652343011</v>
+      </c>
+      <c r="G11">
+        <f>F11*F11</f>
+        <v>376.71388686072936</v>
+      </c>
+      <c r="H11">
+        <f>F11/D11</f>
+        <v>6.5350567853006775E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>265.65155029296801</v>
+      </c>
+      <c r="D12">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f>ABS(C12-D12)</f>
+        <v>77.651550292968011</v>
+      </c>
+      <c r="G12">
+        <f>F12*F12</f>
+        <v>6029.7632629013406</v>
+      </c>
+      <c r="H12">
+        <f>F12/D12</f>
+        <v>0.41304016113280856</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>409.31658935546801</v>
+      </c>
+      <c r="D13">
+        <v>456</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>ABS(C13-D13)</f>
+        <v>46.683410644531989</v>
+      </c>
+      <c r="G13">
+        <f>F13*F13</f>
+        <v>2179.3408294060027</v>
+      </c>
+      <c r="H13">
+        <f>F13/D13</f>
+        <v>0.10237590053625437</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>394.16375732421801</v>
+      </c>
+      <c r="D14">
+        <v>440</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f>ABS(C14-D14)</f>
+        <v>45.836242675781989</v>
+      </c>
+      <c r="G14">
+        <f>F14*F14</f>
+        <v>2100.961142633178</v>
+      </c>
+      <c r="H14">
+        <f>F14/D14</f>
+        <v>0.10417327880859543</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>505.35861206054602</v>
+      </c>
+      <c r="D15">
+        <v>516</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f>ABS(C15-D15)</f>
+        <v>10.641387939453978</v>
+      </c>
+      <c r="G15">
+        <f>F15*F15</f>
+        <v>113.23913727795657</v>
+      </c>
+      <c r="H15">
+        <f>F15/D15</f>
+        <v>2.0622844843903056E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>756.747802734375</v>
+      </c>
+      <c r="D16">
+        <v>851</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f>ABS(C16-D16)</f>
+        <v>94.252197265625</v>
+      </c>
+      <c r="G16">
+        <f>F16*F16</f>
+        <v>8883.4766893982887</v>
+      </c>
+      <c r="H16">
+        <f>F16/D16</f>
+        <v>0.11075463838498825</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>288.60964965820301</v>
+      </c>
+      <c r="D17">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>ABS(C17-D17)</f>
+        <v>45.609649658203011</v>
+      </c>
+      <c r="G17">
+        <f>F17*F17</f>
+        <v>2080.240141944018</v>
+      </c>
+      <c r="H17">
+        <f>F17/D17</f>
+        <v>0.18769403151523872</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>581.14166259765602</v>
+      </c>
+      <c r="D18">
+        <v>650</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>ABS(C18-D18)</f>
+        <v>68.858337402343977</v>
+      </c>
+      <c r="G18">
+        <f>F18*F18</f>
+        <v>4741.4706298150431</v>
+      </c>
+      <c r="H18">
+        <f>F18/D18</f>
+        <v>0.10593590369591381</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <v>223.2744140625</v>
+      </c>
+      <c r="D19">
+        <v>201</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f>ABS(C19-D19)</f>
+        <v>22.2744140625</v>
+      </c>
+      <c r="G19">
+        <f>F19*F19</f>
+        <v>496.14952182769775</v>
+      </c>
+      <c r="H19">
+        <f>F19/D19</f>
+        <v>0.11081798041044776</v>
+      </c>
+      <c r="I19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>580.007568359375</v>
+      </c>
+      <c r="D20">
+        <v>550</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f>ABS(C20-D20)</f>
+        <v>30.007568359375</v>
+      </c>
+      <c r="G20">
+        <f>F20*F20</f>
+        <v>900.45415884256363</v>
+      </c>
+      <c r="H20">
+        <f>F20/D20</f>
+        <v>5.4559215198863635E-2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>243.59942626953099</v>
+      </c>
+      <c r="D21">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f>ABS(C21-D21)</f>
+        <v>0.4005737304690058</v>
+      </c>
+      <c r="G21">
+        <f>F21*F21</f>
+        <v>0.16045931354185569</v>
+      </c>
+      <c r="H21">
+        <f>F21/D21</f>
+        <v>1.6416956166762533E-3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>529.01947021484295</v>
+      </c>
+      <c r="D22">
+        <v>501</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>ABS(C22-D22)</f>
+        <v>28.019470214842954</v>
+      </c>
+      <c r="G22">
+        <f>F22*F22</f>
+        <v>785.0907111204715</v>
+      </c>
+      <c r="H22">
+        <f>F22/D22</f>
+        <v>5.5927086257171563E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>35</v>
+      </c>
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="C23">
         <v>117.72817230224599</v>
       </c>
-      <c r="C2">
+      <c r="D23">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">ABS(B2-C2)</f>
+      <c r="F23">
+        <f>ABS(C23-D23)</f>
         <v>52.728172302245994</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F33" si="1">E2*E2</f>
+      <c r="G23">
+        <f>F23*F23</f>
         <v>2780.2601543353417</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G33" si="2">E2/C2</f>
+      <c r="H23">
+        <f>F23/D23</f>
         <v>0.81120265080378451</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>164.39924621582</v>
-      </c>
-      <c r="C3">
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>244.70732116699199</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <f>ABS(C24-D24)</f>
+        <v>44.707321166991989</v>
+      </c>
+      <c r="G24">
+        <f>F24*F24</f>
+        <v>1998.74456592857</v>
+      </c>
+      <c r="H24">
+        <f>F24/D24</f>
+        <v>0.22353660583495993</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>559.10919189453102</v>
+      </c>
+      <c r="D25">
+        <v>556</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f>ABS(C25-D25)</f>
+        <v>3.1091918945310226</v>
+      </c>
+      <c r="G25">
+        <f>F25*F25</f>
+        <v>9.6670742370174096</v>
+      </c>
+      <c r="H25">
+        <f>F25/D25</f>
+        <v>5.5920717527536377E-3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>773.03082275390602</v>
+      </c>
+      <c r="D26">
+        <v>898</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f>ABS(C26-D26)</f>
+        <v>124.96917724609398</v>
+      </c>
+      <c r="G26">
+        <f>F26*F26</f>
+        <v>15617.295261565652</v>
+      </c>
+      <c r="H26">
+        <f>F26/D26</f>
+        <v>0.13916389448340086</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>308.71826171875</v>
+      </c>
+      <c r="D27">
+        <v>263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f>ABS(C27-D27)</f>
+        <v>45.71826171875</v>
+      </c>
+      <c r="G27">
+        <f>F27*F27</f>
+        <v>2090.1594545841217</v>
+      </c>
+      <c r="H27">
+        <f>F27/D27</f>
+        <v>0.17383369474809887</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>270.46551513671801</v>
+      </c>
+      <c r="D28">
+        <v>235</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f>ABS(C28-D28)</f>
+        <v>35.465515136718011</v>
+      </c>
+      <c r="G28">
+        <f>F28*F28</f>
+        <v>1257.8027639127743</v>
+      </c>
+      <c r="H28">
+        <f>F28/D28</f>
+        <v>0.15091708568816176</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>322.88095092773398</v>
+      </c>
+      <c r="D29">
+        <v>244</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>ABS(C29-D29)</f>
+        <v>78.880950927733977</v>
+      </c>
+      <c r="G29">
+        <f>F29*F29</f>
+        <v>6222.2044192635758</v>
+      </c>
+      <c r="H29">
+        <f>F29/D29</f>
+        <v>0.32328258576940155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>84</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>849.87170410156205</v>
+      </c>
+      <c r="D30">
+        <v>908</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f>ABS(C30-D30)</f>
+        <v>58.128295898437955</v>
+      </c>
+      <c r="G30">
+        <f>F30*F30</f>
+        <v>3378.8987840563586</v>
+      </c>
+      <c r="H30">
+        <f>F30/D30</f>
+        <v>6.4017947024711405E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>320.08468627929602</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f>ABS(C31-D31)</f>
+        <v>20.084686279296022</v>
+      </c>
+      <c r="G31">
+        <f>F31*F31</f>
+        <v>403.39462293774187</v>
+      </c>
+      <c r="H31">
+        <f>F31/D31</f>
+        <v>6.6948954264320071E-2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>324.92630004882801</v>
+      </c>
+      <c r="D32">
+        <v>319</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f>ABS(C32-D32)</f>
+        <v>5.9263000488280113</v>
+      </c>
+      <c r="G32">
+        <f>F32*F32</f>
+        <v>35.121032268738887</v>
+      </c>
+      <c r="H32">
+        <f>F32/D32</f>
+        <v>1.8577743099774328E-2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>265.9072265625</v>
+      </c>
+      <c r="D33">
+        <v>271</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f>ABS(C33-D33)</f>
+        <v>5.0927734375</v>
+      </c>
+      <c r="G33">
+        <f>F33*F33</f>
+        <v>25.936341285705566</v>
+      </c>
+      <c r="H33">
+        <f>F33/D33</f>
+        <v>1.8792521909594097E-2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>354.81784057617102</v>
+      </c>
+      <c r="D34">
+        <v>340</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <f>ABS(C34-D34)</f>
+        <v>14.817840576171022</v>
+      </c>
+      <c r="G34">
+        <f>F34*F34</f>
+        <v>219.56839934082038</v>
+      </c>
+      <c r="H34">
+        <f>F34/D34</f>
+        <v>4.3581884047561831E-2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>94</v>
+      </c>
+      <c r="B35">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>364.01712036132801</v>
+      </c>
+      <c r="D35">
+        <v>350</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <f>ABS(C35-D35)</f>
+        <v>14.017120361328011</v>
+      </c>
+      <c r="G35">
+        <f>F35*F35</f>
+        <v>196.47966322395632</v>
+      </c>
+      <c r="H35">
+        <f>F35/D35</f>
+        <v>4.0048915318080032E-2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>756.0458984375</v>
+      </c>
+      <c r="D36">
+        <v>778</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f>ABS(C36-D36)</f>
+        <v>21.9541015625</v>
+      </c>
+      <c r="G36">
+        <f>F36*F36</f>
+        <v>481.98257541656494</v>
+      </c>
+      <c r="H36">
+        <f>F36/D36</f>
+        <v>2.8218639540488432E-2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>351.77798461914</v>
+      </c>
+      <c r="D37">
+        <v>357</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <f>ABS(C37-D37)</f>
+        <v>5.2220153808600003</v>
+      </c>
+      <c r="G37">
+        <f>F37*F37</f>
+        <v>27.269444637938413</v>
+      </c>
+      <c r="H37">
+        <f>F37/D37</f>
+        <v>1.4627494064033615E-2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>389.36706542968699</v>
+      </c>
+      <c r="D38">
+        <v>367</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <f>ABS(C38-D38)</f>
+        <v>22.367065429686988</v>
+      </c>
+      <c r="G38">
+        <f>F38*F38</f>
+        <v>500.28561593589876</v>
+      </c>
+      <c r="H38">
+        <f>F38/D38</f>
+        <v>6.0945682369719312E-2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>407.88803100585898</v>
+      </c>
+      <c r="D39">
+        <v>439</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>ABS(C39-D39)</f>
+        <v>31.111968994141023</v>
+      </c>
+      <c r="G39">
+        <f>F39*F39</f>
+        <v>967.9546146923924</v>
+      </c>
+      <c r="H39">
+        <f>F39/D39</f>
+        <v>7.08700888249226E-2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>372.56384277343699</v>
+      </c>
+      <c r="D40">
+        <v>400</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f>ABS(C40-D40)</f>
+        <v>27.436157226563012</v>
+      </c>
+      <c r="G40">
+        <f>F40*F40</f>
+        <v>752.74272336068577</v>
+      </c>
+      <c r="H40">
+        <f>F40/D40</f>
+        <v>6.8590393066407532E-2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>429.03405761718699</v>
+      </c>
+      <c r="D41">
+        <v>406</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f>ABS(C41-D41)</f>
+        <v>23.034057617186988</v>
+      </c>
+      <c r="G41">
+        <f>F41*F41</f>
+        <v>530.56781031188996</v>
+      </c>
+      <c r="H41">
+        <f>F41/D41</f>
+        <v>5.6734132062036917E-2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>507.370513916015</v>
+      </c>
+      <c r="D42">
+        <v>433</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <f>ABS(C42-D42)</f>
+        <v>74.370513916015</v>
+      </c>
+      <c r="G42">
+        <f>F42*F42</f>
+        <v>5530.973340132181</v>
+      </c>
+      <c r="H42">
+        <f>F42/D42</f>
+        <v>0.17175638317786374</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>170.34571838378901</v>
+      </c>
+      <c r="D43">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <f>ABS(C43-D43)</f>
+        <v>37.345718383789006</v>
+      </c>
+      <c r="G43">
+        <f>F43*F43</f>
+        <v>1394.702681601276</v>
+      </c>
+      <c r="H43">
+        <f>F43/D43</f>
+        <v>0.28079487506608275</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>381.13238525390602</v>
+      </c>
+      <c r="D44">
+        <v>347</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f>ABS(C44-D44)</f>
+        <v>34.132385253906023</v>
+      </c>
+      <c r="G44">
+        <f>F44*F44</f>
+        <v>1165.0197231210614</v>
+      </c>
+      <c r="H44">
+        <f>F44/D44</f>
+        <v>9.8364222633734941E-2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>605.10339355468705</v>
+      </c>
+      <c r="D45">
+        <v>570</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <f>ABS(C45-D45)</f>
+        <v>35.103393554687045</v>
+      </c>
+      <c r="G45">
+        <f>F45*F45</f>
+        <v>1232.2482390552441</v>
+      </c>
+      <c r="H45">
+        <f>F45/D45</f>
+        <v>6.1584900973135168E-2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>309.75161743164</v>
+      </c>
+      <c r="D46">
+        <v>408</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f>ABS(C46-D46)</f>
+        <v>98.24838256836</v>
+      </c>
+      <c r="G46">
+        <f>F46*F46</f>
+        <v>9652.744677298826</v>
+      </c>
+      <c r="H46">
+        <f>F46/D46</f>
+        <v>0.24080485923617648</v>
+      </c>
+      <c r="I46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>95</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>558.99078369140602</v>
+      </c>
+      <c r="D47">
+        <v>631</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f>ABS(C47-D47)</f>
+        <v>72.009216308593977</v>
+      </c>
+      <c r="G47">
+        <f>F47*F47</f>
+        <v>5185.3272333778768</v>
+      </c>
+      <c r="H47">
+        <f>F47/D47</f>
+        <v>0.11411920175688428</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>421.792877197265</v>
+      </c>
+      <c r="D48">
+        <v>410</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f>ABS(C48-D48)</f>
+        <v>11.792877197265</v>
+      </c>
+      <c r="G48">
+        <f>F48*F48</f>
+        <v>139.07195258977279</v>
+      </c>
+      <c r="H48">
+        <f>F48/D48</f>
+        <v>2.8763115115280489E-2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>416.960845947265</v>
+      </c>
+      <c r="D49">
+        <v>428</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f>ABS(C49-D49)</f>
+        <v>11.039154052735</v>
+      </c>
+      <c r="G49">
+        <f>F49*F49</f>
+        <v>121.86292220001557</v>
+      </c>
+      <c r="H49">
+        <f>F49/D49</f>
+        <v>2.5792416011063083E-2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>441.56848144531199</v>
+      </c>
+      <c r="D50">
+        <v>405</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <f>ABS(C50-D50)</f>
+        <v>36.568481445311988</v>
+      </c>
+      <c r="G50">
+        <f>F50*F50</f>
+        <v>1337.2538352161271</v>
+      </c>
+      <c r="H50">
+        <f>F50/D50</f>
+        <v>9.0292546778548116E-2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>236.20892333984301</v>
+      </c>
+      <c r="D51">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <f>ABS(C51-D51)</f>
+        <v>4.791076660156989</v>
+      </c>
+      <c r="G51">
+        <f>F51*F51</f>
+        <v>22.954415563501048</v>
+      </c>
+      <c r="H51">
+        <f>F51/D51</f>
+        <v>1.9879986141730244E-2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>259.54251098632801</v>
+      </c>
+      <c r="D52">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f>ABS(C52-D52)</f>
+        <v>24.542510986328011</v>
+      </c>
+      <c r="G52">
+        <f>F52*F52</f>
+        <v>602.33484551403114</v>
+      </c>
+      <c r="H52">
+        <f>F52/D52</f>
+        <v>0.10443621696309792</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>370.25692749023398</v>
+      </c>
+      <c r="D53">
+        <v>412</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <f>ABS(C53-D53)</f>
+        <v>41.743072509766023</v>
+      </c>
+      <c r="G53">
+        <f>F53*F53</f>
+        <v>1742.4841025555838</v>
+      </c>
+      <c r="H53">
+        <f>F53/D53</f>
+        <v>0.10131813715962627</v>
+      </c>
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>405.71612548828102</v>
+      </c>
+      <c r="D54">
+        <v>419</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <f>ABS(C54-D54)</f>
+        <v>13.283874511718977</v>
+      </c>
+      <c r="G54">
+        <f>F54*F54</f>
+        <v>176.46132204309711</v>
+      </c>
+      <c r="H54">
+        <f>F54/D54</f>
+        <v>3.1703757784532167E-2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>504.84567260742102</v>
+      </c>
+      <c r="D55">
+        <v>489</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <f>ABS(C55-D55)</f>
+        <v>15.845672607421022</v>
+      </c>
+      <c r="G55">
+        <f>F55*F55</f>
+        <v>251.08534038157293</v>
+      </c>
+      <c r="H55">
+        <f>F55/D55</f>
+        <v>3.2404238460983684E-2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>38</v>
+      </c>
+      <c r="C56">
+        <v>491.37771606445301</v>
+      </c>
+      <c r="D56">
+        <v>476</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <f>ABS(C56-D56)</f>
+        <v>15.377716064453011</v>
+      </c>
+      <c r="G56">
+        <f>F56*F56</f>
+        <v>236.47415135893621</v>
+      </c>
+      <c r="H56">
+        <f>F56/D56</f>
+        <v>3.2306126185825651E-2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>44</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>536.89227294921795</v>
+      </c>
+      <c r="D57">
+        <v>533</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f>ABS(C57-D57)</f>
+        <v>3.8922729492179542</v>
+      </c>
+      <c r="G57">
+        <f>F57*F57</f>
+        <v>15.149788711213832</v>
+      </c>
+      <c r="H57">
+        <f>F57/D57</f>
+        <v>7.3025758897147354E-3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>54</v>
+      </c>
+      <c r="C58">
+        <v>464.56988525390602</v>
+      </c>
+      <c r="D58">
+        <v>491</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <f>ABS(C58-D58)</f>
+        <v>26.430114746093977</v>
+      </c>
+      <c r="G58">
+        <f>F58*F58</f>
+        <v>698.55096549169434</v>
+      </c>
+      <c r="H58">
+        <f>F58/D58</f>
+        <v>5.3829154269030503E-2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>305.45632934570301</v>
+      </c>
+      <c r="D59">
+        <v>317</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <f>ABS(C59-D59)</f>
+        <v>11.543670654296989</v>
+      </c>
+      <c r="G59">
+        <f>F59*F59</f>
+        <v>133.25633217487746</v>
+      </c>
+      <c r="H59">
+        <f>F59/D59</f>
+        <v>3.6415364840053595E-2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>672.614013671875</v>
+      </c>
+      <c r="D60">
+        <v>704</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <f>ABS(C60-D60)</f>
+        <v>31.385986328125</v>
+      </c>
+      <c r="G60">
+        <f>F60*F60</f>
+        <v>985.08013778924942</v>
+      </c>
+      <c r="H60">
+        <f>F60/D60</f>
+        <v>4.4582366943359375E-2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>233.93058776855401</v>
+      </c>
+      <c r="D61">
+        <v>228</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <f>ABS(C61-D61)</f>
+        <v>5.9305877685540054</v>
+      </c>
+      <c r="G61">
+        <f>F61*F61</f>
+        <v>35.171871280522375</v>
+      </c>
+      <c r="H61">
+        <f>F61/D61</f>
+        <v>2.601134986207897E-2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>258.59088134765602</v>
+      </c>
+      <c r="D62">
+        <v>248</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <f>ABS(C62-D62)</f>
+        <v>10.590881347656023</v>
+      </c>
+      <c r="G62">
+        <f>F62*F62</f>
+        <v>112.16676772012825</v>
+      </c>
+      <c r="H62">
+        <f>F62/D62</f>
+        <v>4.2705166724419444E-2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>545.86584472656205</v>
+      </c>
+      <c r="D63">
+        <v>546</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <f>ABS(C63-D63)</f>
+        <v>0.13415527343795475</v>
+      </c>
+      <c r="G63">
+        <f>F63*F63</f>
+        <v>1.7997637391212407E-2</v>
+      </c>
+      <c r="H63">
+        <f>F63/D63</f>
+        <v>2.4570562900724313E-4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>25</v>
+      </c>
+      <c r="B64">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>462.122314453125</v>
+      </c>
+      <c r="D64">
+        <v>494</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <f>ABS(C64-D64)</f>
+        <v>31.877685546875</v>
+      </c>
+      <c r="G64">
+        <f>F64*F64</f>
+        <v>1016.1868358254433</v>
+      </c>
+      <c r="H64">
+        <f>F64/D64</f>
+        <v>6.4529727827682182E-2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>168.77313232421801</v>
+      </c>
+      <c r="D65">
+        <v>170</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <f>ABS(C65-D65)</f>
+        <v>1.226867675781989</v>
+      </c>
+      <c r="G65">
+        <f>F65*F65</f>
+        <v>1.5052042938786996</v>
+      </c>
+      <c r="H65">
+        <f>F65/D65</f>
+        <v>7.2168686810705233E-3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>221.11338806152301</v>
+      </c>
+      <c r="D66">
+        <v>181</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <f>ABS(C66-D66)</f>
+        <v>40.113388061523011</v>
+      </c>
+      <c r="G66">
+        <f>F66*F66</f>
+        <v>1609.0839017743369</v>
+      </c>
+      <c r="H66">
+        <f>F66/D66</f>
+        <v>0.22162092851670173</v>
+      </c>
+      <c r="I66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <v>62</v>
+      </c>
+      <c r="C67">
+        <v>445.64367675781199</v>
+      </c>
+      <c r="D67">
+        <v>506</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <f>ABS(C67-D67)</f>
+        <v>60.356323242188012</v>
+      </c>
+      <c r="G67">
+        <f>F67*F67</f>
+        <v>3642.8857553154849</v>
+      </c>
+      <c r="H67">
+        <f>F67/D67</f>
+        <v>0.11928127122962058</v>
+      </c>
+      <c r="I67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>378.43630981445301</v>
+      </c>
+      <c r="D68">
+        <v>354</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <f>ABS(C68-D68)</f>
+        <v>24.436309814453011</v>
+      </c>
+      <c r="G68">
+        <f>F68*F68</f>
+        <v>597.13323734793255</v>
+      </c>
+      <c r="H68">
+        <f>F68/D68</f>
+        <v>6.9029123769641279E-2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <v>481.80435180664</v>
+      </c>
+      <c r="D69">
+        <v>524</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <f>ABS(C69-D69)</f>
+        <v>42.19564819336</v>
+      </c>
+      <c r="G69">
+        <f>F69*F69</f>
+        <v>1780.472726457805</v>
+      </c>
+      <c r="H69">
+        <f>F69/D69</f>
+        <v>8.0526046170534354E-2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>59</v>
+      </c>
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>560.06188964843705</v>
+      </c>
+      <c r="D70">
+        <v>583</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <f>ABS(C70-D70)</f>
+        <v>22.938110351562955</v>
+      </c>
+      <c r="G70">
+        <f>F70*F70</f>
+        <v>526.15690650047964</v>
+      </c>
+      <c r="H70">
+        <f>F70/D70</f>
+        <v>3.9344957721377284E-2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>81</v>
+      </c>
+      <c r="C71">
+        <v>352.86273193359301</v>
+      </c>
+      <c r="D71">
+        <v>526</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <f>ABS(C71-D71)</f>
+        <v>173.13726806640699</v>
+      </c>
+      <c r="G71">
+        <f>F71*F71</f>
+        <v>29976.513593498872</v>
+      </c>
+      <c r="H71">
+        <f>F71/D71</f>
+        <v>0.32915830430875853</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>467.973876953125</v>
+      </c>
+      <c r="D72">
+        <v>458</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <f>ABS(C72-D72)</f>
+        <v>9.973876953125</v>
+      </c>
+      <c r="G72">
+        <f>F72*F72</f>
+        <v>99.478221476078033</v>
+      </c>
+      <c r="H72">
+        <f>F72/D72</f>
+        <v>2.1777023915120087E-2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>166.343994140625</v>
+      </c>
+      <c r="D73">
+        <v>135</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <f>ABS(C73-D73)</f>
+        <v>31.343994140625</v>
+      </c>
+      <c r="G73">
+        <f>F73*F73</f>
+        <v>982.44596868753433</v>
+      </c>
+      <c r="H73">
+        <f>F73/D73</f>
+        <v>0.232177734375</v>
+      </c>
+      <c r="I73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>363.75732421875</v>
+      </c>
+      <c r="D74">
+        <v>310</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <f>ABS(C74-D74)</f>
+        <v>53.75732421875</v>
+      </c>
+      <c r="G74">
+        <f>F74*F74</f>
+        <v>2889.8499071598053</v>
+      </c>
+      <c r="H74">
+        <f>F74/D74</f>
+        <v>0.17341072328629031</v>
+      </c>
+      <c r="I74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>475.59210205078102</v>
+      </c>
+      <c r="D75">
+        <v>545</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <f>ABS(C75-D75)</f>
+        <v>69.407897949218977</v>
+      </c>
+      <c r="G75">
+        <f>F75*F75</f>
+        <v>4817.4562977291962</v>
+      </c>
+      <c r="H75">
+        <f>F75/D75</f>
+        <v>0.12735394119122748</v>
+      </c>
+      <c r="I75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>52</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>364.59378051757801</v>
+      </c>
+      <c r="D76">
+        <v>419</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <f>ABS(C76-D76)</f>
+        <v>54.406219482421989</v>
+      </c>
+      <c r="G76">
+        <f>F76*F76</f>
+        <v>2960.0367183694739</v>
+      </c>
+      <c r="H76">
+        <f>F76/D76</f>
+        <v>0.12984777919432455</v>
+      </c>
+      <c r="I76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>571.82940673828102</v>
+      </c>
+      <c r="D77">
+        <v>564</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f>ABS(C77-D77)</f>
+        <v>7.8294067382810226</v>
+      </c>
+      <c r="G77">
+        <f>F77*F77</f>
+        <v>61.299609873440282</v>
+      </c>
+      <c r="H77">
+        <f>F77/D77</f>
+        <v>1.3881926840923799E-2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>631.98077392578102</v>
+      </c>
+      <c r="D78">
+        <v>636</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <f>ABS(C78-D78)</f>
+        <v>4.0192260742189774</v>
+      </c>
+      <c r="G78">
+        <f>F78*F78</f>
+        <v>16.154178235681691</v>
+      </c>
+      <c r="H78">
+        <f>F78/D78</f>
+        <v>6.319537852545562E-3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>62</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>584.90557861328102</v>
+      </c>
+      <c r="D79">
+        <v>616</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <f>ABS(C79-D79)</f>
+        <v>31.094421386718977</v>
+      </c>
+      <c r="G79">
+        <f>F79*F79</f>
+        <v>966.86304137484649</v>
+      </c>
+      <c r="H79">
+        <f>F79/D79</f>
+        <v>5.0477956796621717E-2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>89</v>
+      </c>
+      <c r="B80">
+        <v>65</v>
+      </c>
+      <c r="C80">
+        <v>471.01089477539</v>
+      </c>
+      <c r="D80">
+        <v>581</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <f>ABS(C80-D80)</f>
+        <v>109.98910522461</v>
+      </c>
+      <c r="G80">
+        <f>F80*F80</f>
+        <v>12097.603268110332</v>
+      </c>
+      <c r="H80">
+        <f>F80/D80</f>
+        <v>0.18930999178074009</v>
+      </c>
+      <c r="I80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>305.56405639648398</v>
+      </c>
+      <c r="D81">
+        <v>269</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <f>ABS(C81-D81)</f>
+        <v>36.564056396483977</v>
+      </c>
+      <c r="G81">
+        <f>F81*F81</f>
+        <v>1336.9302201652608</v>
+      </c>
+      <c r="H81">
+        <f>F81/D81</f>
+        <v>0.1359258602099776</v>
+      </c>
+      <c r="I81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>94</v>
+      </c>
+      <c r="C82">
+        <v>564.67321777343705</v>
+      </c>
+      <c r="D82">
+        <v>585</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <f>ABS(C82-D82)</f>
+        <v>20.326782226562955</v>
+      </c>
+      <c r="G82">
+        <f>F82*F82</f>
+        <v>413.17807568611562</v>
+      </c>
+      <c r="H82">
+        <f>F82/D82</f>
+        <v>3.4746636284723E-2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>54</v>
+      </c>
+      <c r="B83">
+        <v>31</v>
+      </c>
+      <c r="C83">
+        <v>420.29821777343699</v>
+      </c>
+      <c r="D83">
+        <v>589</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <f>ABS(C83-D83)</f>
+        <v>168.70178222656301</v>
+      </c>
+      <c r="G83">
+        <f>F83*F83</f>
+        <v>28460.29132641869</v>
+      </c>
+      <c r="H83">
+        <f>F83/D83</f>
+        <v>0.28642068289739053</v>
+      </c>
+      <c r="I83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <v>73</v>
+      </c>
+      <c r="C84">
+        <v>515.006591796875</v>
+      </c>
+      <c r="D84">
+        <v>608</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <f>ABS(C84-D84)</f>
+        <v>92.993408203125</v>
+      </c>
+      <c r="G84">
+        <f>F84*F84</f>
+        <v>8647.773969233036</v>
+      </c>
+      <c r="H84">
+        <f>F84/D84</f>
+        <v>0.1529496845446135</v>
+      </c>
+      <c r="I84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>42</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>416.62261962890602</v>
+      </c>
+      <c r="D85">
+        <v>402</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <f>ABS(C85-D85)</f>
+        <v>14.622619628906023</v>
+      </c>
+      <c r="G85">
+        <f>F85*F85</f>
+        <v>213.82100481166771</v>
+      </c>
+      <c r="H85">
+        <f>F85/D85</f>
+        <v>3.6374675693796078E-2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>70</v>
+      </c>
+      <c r="B86">
+        <v>97</v>
+      </c>
+      <c r="C86">
+        <v>474.21463012695301</v>
+      </c>
+      <c r="D86">
+        <v>609</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <f>ABS(C86-D86)</f>
+        <v>134.78536987304699</v>
+      </c>
+      <c r="G86">
+        <f>F86*F86</f>
+        <v>18167.095931814081</v>
+      </c>
+      <c r="H86">
+        <f>F86/D86</f>
+        <v>0.2213224464253645</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>375.70468139648398</v>
+      </c>
+      <c r="D87">
+        <v>368</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <f>ABS(C87-D87)</f>
+        <v>7.7046813964839771</v>
+      </c>
+      <c r="G87">
+        <f>F87*F87</f>
+        <v>59.362115421326287</v>
+      </c>
+      <c r="H87">
+        <f>F87/D87</f>
+        <v>2.0936634229576024E-2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>97</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>735.40167236328102</v>
+      </c>
+      <c r="D88">
+        <v>762</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <f>ABS(C88-D88)</f>
+        <v>26.598327636718977</v>
+      </c>
+      <c r="G88">
+        <f>F88*F88</f>
+        <v>707.4710330702485</v>
+      </c>
+      <c r="H88">
+        <f>F88/D88</f>
+        <v>3.49059417804711E-2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>99</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>757.87145996093705</v>
+      </c>
+      <c r="D89">
+        <v>801</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <f>ABS(C89-D89)</f>
+        <v>43.128540039062955</v>
+      </c>
+      <c r="G89">
+        <f>F89*F89</f>
+        <v>1860.0709659010565</v>
+      </c>
+      <c r="H89">
+        <f>F89/D89</f>
+        <v>5.3843370835284586E-2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>64</v>
+      </c>
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>736.35125732421795</v>
+      </c>
+      <c r="D90">
+        <v>765</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <f>ABS(C90-D90)</f>
+        <v>28.648742675782046</v>
+      </c>
+      <c r="G90">
+        <f>F90*F90</f>
+        <v>820.7504569031754</v>
+      </c>
+      <c r="H90">
+        <f>F90/D90</f>
+        <v>3.7449336831087643E-2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>60</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>557.05474853515602</v>
+      </c>
+      <c r="D91">
+        <v>616</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <f>ABS(C91-D91)</f>
+        <v>58.945251464843977</v>
+      </c>
+      <c r="G91">
+        <f>F91*F91</f>
+        <v>3474.5426702536911</v>
+      </c>
+      <c r="H91">
+        <f>F91/D91</f>
+        <v>9.5690343287084381E-2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>357.83993530273398</v>
+      </c>
+      <c r="D92">
+        <v>346</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <f>ABS(C92-D92)</f>
+        <v>11.839935302733977</v>
+      </c>
+      <c r="G92">
+        <f>F92*F92</f>
+        <v>140.1840679729263</v>
+      </c>
+      <c r="H92">
+        <f>F92/D92</f>
+        <v>3.4219466192872763E-2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>69</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>545.994384765625</v>
+      </c>
+      <c r="D93">
+        <v>547</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <f>ABS(C93-D93)</f>
+        <v>1.005615234375</v>
+      </c>
+      <c r="G93">
+        <f>F93*F93</f>
+        <v>1.0112619996070862</v>
+      </c>
+      <c r="H93">
+        <f>F93/D93</f>
+        <v>1.8384190756398537E-3</v>
+      </c>
+      <c r="I93" t="s">
         <v>113</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>68</v>
+      </c>
+      <c r="B94">
+        <v>52</v>
+      </c>
+      <c r="C94">
+        <v>593.097900390625</v>
+      </c>
+      <c r="D94">
+        <v>629</v>
+      </c>
+      <c r="E94" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>51.39924621582</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>2641.8825115544864</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="2"/>
-        <v>0.45486058598070794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>170.34571838378901</v>
-      </c>
-      <c r="C4">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F94">
+        <f>ABS(C94-D94)</f>
+        <v>35.902099609375</v>
+      </c>
+      <c r="G94">
+        <f>F94*F94</f>
+        <v>1288.9607563614845</v>
+      </c>
+      <c r="H94">
+        <f>F94/D94</f>
+        <v>5.7078059792329092E-2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>66</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>611.45562744140602</v>
+      </c>
+      <c r="D95">
+        <v>720</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <f>ABS(C95-D95)</f>
+        <v>108.54437255859398</v>
+      </c>
+      <c r="G95">
+        <f>F95*F95</f>
+        <v>11781.880814138849</v>
+      </c>
+      <c r="H95">
+        <f>F95/D95</f>
+        <v>0.15075607299804719</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>84</v>
+      </c>
+      <c r="C96">
+        <v>661.72100830078102</v>
+      </c>
+      <c r="D96">
+        <v>726</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <f>ABS(C96-D96)</f>
+        <v>64.278991699218977</v>
+      </c>
+      <c r="G96">
+        <f>F96*F96</f>
+        <v>4131.7887738682621</v>
+      </c>
+      <c r="H96">
+        <f>F96/D96</f>
+        <v>8.8538556059530274E-2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>541.23687744140602</v>
+      </c>
+      <c r="D97">
+        <v>729</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <f>ABS(C97-D97)</f>
+        <v>187.76312255859398</v>
+      </c>
+      <c r="G97">
+        <f>F97*F97</f>
+        <v>35254.990192953584</v>
+      </c>
+      <c r="H97">
+        <f>F97/D97</f>
+        <v>0.25756258238490259</v>
+      </c>
+      <c r="I97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>91</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>490.80078125</v>
+      </c>
+      <c r="D98">
+        <v>501</v>
+      </c>
+      <c r="E98" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>37.345718383789006</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1394.702681601276</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>0.28079487506608275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>71</v>
-      </c>
-      <c r="B5">
-        <v>166.343994140625</v>
-      </c>
-      <c r="C5">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F98">
+        <f>ABS(C98-D98)</f>
+        <v>10.19921875</v>
+      </c>
+      <c r="G98">
+        <f>F98*F98</f>
+        <v>104.02406311035156</v>
+      </c>
+      <c r="H98">
+        <f>F98/D98</f>
+        <v>2.0357722055888223E-2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>65</v>
+      </c>
+      <c r="B99">
+        <v>35</v>
+      </c>
+      <c r="C99">
+        <v>707.217529296875</v>
+      </c>
+      <c r="D99">
+        <v>752</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <f>ABS(C99-D99)</f>
+        <v>44.782470703125</v>
+      </c>
+      <c r="G99">
+        <f>F99*F99</f>
+        <v>2005.4696822762489</v>
+      </c>
+      <c r="H99">
+        <f>F99/D99</f>
+        <v>5.9551157849900269E-2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>56</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>521.03936767578102</v>
+      </c>
+      <c r="D100">
+        <v>497</v>
+      </c>
+      <c r="E100" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>31.343994140625</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>982.44596868753433</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.232177734375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <v>168.77313232421801</v>
-      </c>
-      <c r="C6">
-        <v>170</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.226867675781989</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1.5052042938786996</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>7.2168686810705233E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>221.11338806152301</v>
-      </c>
-      <c r="C7">
-        <v>181</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>40.113388061523011</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>1609.0839017743369</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0.22162092851670173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>67</v>
-      </c>
-      <c r="B8">
-        <v>265.65155029296801</v>
-      </c>
-      <c r="C8">
-        <v>188</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F100">
+        <f>ABS(C100-D100)</f>
+        <v>24.039367675781023</v>
+      </c>
+      <c r="G100">
+        <f>F100*F100</f>
+        <v>577.8911982513855</v>
+      </c>
+      <c r="H100">
+        <f>F100/D100</f>
+        <v>4.8368949045837065E-2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>85</v>
+      </c>
+      <c r="B101">
+        <v>69</v>
+      </c>
+      <c r="C101">
+        <v>643.89001464843705</v>
+      </c>
+      <c r="D101">
+        <v>915</v>
+      </c>
+      <c r="E101" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>77.651550292968011</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>6029.7632629013406</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0.41304016113280856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>244.70732116699199</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>44.707321166991989</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1998.74456592857</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0.22353660583495993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>95</v>
-      </c>
-      <c r="B10">
-        <v>223.2744140625</v>
-      </c>
-      <c r="C10">
-        <v>201</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>22.2744140625</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>496.14952182769775</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0.11081798041044776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>233.93058776855401</v>
-      </c>
-      <c r="C11">
-        <v>228</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>5.9305877685540054</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>35.171871280522375</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>2.601134986207897E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>270.46551513671801</v>
-      </c>
-      <c r="C12">
-        <v>235</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>35.465515136718011</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>1257.8027639127743</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0.15091708568816176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>259.54251098632801</v>
-      </c>
-      <c r="C13">
-        <v>235</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>24.542510986328011</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>602.33484551403114</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0.10443621696309792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>236.20892333984301</v>
-      </c>
-      <c r="C14">
-        <v>241</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>4.791076660156989</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>22.954415563501048</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1.9879986141730244E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>288.60964965820301</v>
-      </c>
-      <c r="C15">
-        <v>243</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>45.609649658203011</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>2080.240141944018</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>0.18769403151523872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>92</v>
-      </c>
-      <c r="B16">
-        <v>243.59942626953099</v>
-      </c>
-      <c r="C16">
-        <v>244</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.4005737304690058</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.16045931354185569</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>1.6416956166762533E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>99</v>
-      </c>
-      <c r="B17">
-        <v>322.88095092773398</v>
-      </c>
-      <c r="C17">
-        <v>244</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>78.880950927733977</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>6222.2044192635758</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0.32328258576940155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <v>258.59088134765602</v>
-      </c>
-      <c r="C18">
-        <v>248</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>10.590881347656023</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>112.16676772012825</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>4.2705166724419444E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>308.71826171875</v>
-      </c>
-      <c r="C19">
-        <v>263</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>45.71826171875</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>2090.1594545841217</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>0.17383369474809887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>79</v>
-      </c>
-      <c r="B20">
-        <v>305.56405639648398</v>
-      </c>
-      <c r="C20">
-        <v>269</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>36.564056396483977</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>1336.9302201652608</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>0.1359258602099776</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>265.9072265625</v>
-      </c>
-      <c r="C21">
-        <v>271</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>5.0927734375</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>25.936341285705566</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>1.8792521909594097E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>316.40911865234301</v>
-      </c>
-      <c r="C22">
-        <v>297</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>19.409118652343011</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>376.71388686072936</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>6.5350567853006775E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>320.08468627929602</v>
-      </c>
-      <c r="C23">
-        <v>300</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>20.084686279296022</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>403.39462293774187</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>6.6948954264320071E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>72</v>
-      </c>
-      <c r="B24">
-        <v>363.75732421875</v>
-      </c>
-      <c r="C24">
-        <v>310</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>53.75732421875</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>2889.8499071598053</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>0.17341072328629031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>362.43981933593699</v>
-      </c>
-      <c r="C25">
-        <v>311</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>51.439819335936988</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>2646.0550133138368</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>0.16540134834706427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>57</v>
-      </c>
-      <c r="B26">
-        <v>305.45632934570301</v>
-      </c>
-      <c r="C26">
-        <v>317</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>11.543670654296989</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>133.25633217487746</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>3.6415364840053595E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>324.92630004882801</v>
-      </c>
-      <c r="C27">
-        <v>319</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>5.9263000488280113</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>35.121032268738887</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>1.8577743099774328E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>333.177001953125</v>
-      </c>
-      <c r="C28">
-        <v>330</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>3.177001953125</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>10.093341410160065</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>9.6272786458333325E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>44</v>
-      </c>
-      <c r="B29">
-        <v>354.81784057617102</v>
-      </c>
-      <c r="C29">
-        <v>340</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>14.817840576171022</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>219.56839934082038</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>4.3581884047561831E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>90</v>
-      </c>
-      <c r="B30">
-        <v>357.83993530273398</v>
-      </c>
-      <c r="C30">
-        <v>346</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>11.839935302733977</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>140.1840679729263</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>3.4219466192872763E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>381.13238525390602</v>
-      </c>
-      <c r="C31">
-        <v>347</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>34.132385253906023</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>1165.0197231210614</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>9.8364222633734941E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>78</v>
-      </c>
-      <c r="B32">
-        <v>364.01712036132801</v>
-      </c>
-      <c r="C32">
-        <v>350</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>14.017120361328011</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>196.47966322395632</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>4.0048915318080032E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>66</v>
-      </c>
-      <c r="B33">
-        <v>378.43630981445301</v>
-      </c>
-      <c r="C33">
-        <v>354</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>24.436309814453011</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>597.13323734793255</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>6.9029123769641279E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>80</v>
-      </c>
-      <c r="B34">
-        <v>351.77798461914</v>
-      </c>
-      <c r="C34">
-        <v>357</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E65" si="3">ABS(B34-C34)</f>
-        <v>5.2220153808600003</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F65" si="4">E34*E34</f>
-        <v>27.269444637938413</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G65" si="5">E34/C34</f>
-        <v>1.4627494064033615E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>358.540771484375</v>
-      </c>
-      <c r="C35">
-        <v>363</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>4.459228515625</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="4"/>
-        <v>19.884718954563141</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="5"/>
-        <v>1.2284376076101928E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>352.176666259765</v>
-      </c>
-      <c r="C36">
-        <v>364</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>11.823333740235</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="4"/>
-        <v>139.79122073297935</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="5"/>
-        <v>3.2481686099546707E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>82</v>
-      </c>
-      <c r="B37">
-        <v>389.36706542968699</v>
-      </c>
-      <c r="C37">
-        <v>367</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>22.367065429686988</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="4"/>
-        <v>500.28561593589876</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>6.0945682369719312E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>85</v>
-      </c>
-      <c r="B38">
-        <v>375.70468139648398</v>
-      </c>
-      <c r="C38">
-        <v>368</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>7.7046813964839771</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="4"/>
-        <v>59.362115421326287</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>2.0936634229576024E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>56</v>
-      </c>
-      <c r="B39">
-        <v>372.56384277343699</v>
-      </c>
-      <c r="C39">
-        <v>400</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>27.436157226563012</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>752.74272336068577</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>6.8590393066407532E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>83</v>
-      </c>
-      <c r="B40">
-        <v>416.62261962890602</v>
-      </c>
-      <c r="C40">
-        <v>402</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>14.622619628906023</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="4"/>
-        <v>213.82100481166771</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>3.6374675693796078E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>48</v>
-      </c>
-      <c r="B41">
-        <v>441.56848144531199</v>
-      </c>
-      <c r="C41">
-        <v>405</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>36.568481445311988</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="4"/>
-        <v>1337.2538352161271</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
-        <v>9.0292546778548116E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>429.03405761718699</v>
-      </c>
-      <c r="C42">
-        <v>406</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>23.034057617186988</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="4"/>
-        <v>530.56781031188996</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="5"/>
-        <v>5.6734132062036917E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>32</v>
-      </c>
-      <c r="B43">
-        <v>309.75161743164</v>
-      </c>
-      <c r="C43">
-        <v>408</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="3"/>
-        <v>98.24838256836</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="4"/>
-        <v>9652.744677298826</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="5"/>
-        <v>0.24080485923617648</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>93</v>
-      </c>
-      <c r="B44">
-        <v>421.792877197265</v>
-      </c>
-      <c r="C44">
-        <v>410</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>11.792877197265</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="4"/>
-        <v>139.07195258977279</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>2.8763115115280489E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>36</v>
-      </c>
-      <c r="B45">
-        <v>370.25692749023398</v>
-      </c>
-      <c r="C45">
-        <v>412</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>41.743072509766023</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>1742.4841025555838</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>0.10131813715962627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>39</v>
-      </c>
-      <c r="B46">
-        <v>405.71612548828102</v>
-      </c>
-      <c r="C46">
-        <v>419</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="3"/>
-        <v>13.283874511718977</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="4"/>
-        <v>176.46132204309711</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="5"/>
-        <v>3.1703757784532167E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>74</v>
-      </c>
-      <c r="B47">
-        <v>364.59378051757801</v>
-      </c>
-      <c r="C47">
-        <v>419</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="3"/>
-        <v>54.406219482421989</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
-        <v>2960.0367183694739</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="5"/>
-        <v>0.12984777919432455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>416.960845947265</v>
-      </c>
-      <c r="C48">
-        <v>428</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="3"/>
-        <v>11.039154052735</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="4"/>
-        <v>121.86292220001557</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="5"/>
-        <v>2.5792416011063083E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>40</v>
-      </c>
-      <c r="B49">
-        <v>507.370513916015</v>
-      </c>
-      <c r="C49">
-        <v>433</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="3"/>
-        <v>74.370513916015</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="4"/>
-        <v>5530.973340132181</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="5"/>
-        <v>0.17175638317786374</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>37</v>
-      </c>
-      <c r="B50">
-        <v>407.88803100585898</v>
-      </c>
-      <c r="C50">
-        <v>439</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="3"/>
-        <v>31.111968994141023</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="4"/>
-        <v>967.9546146923924</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="5"/>
-        <v>7.08700888249226E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51">
-        <v>394.16375732421801</v>
-      </c>
-      <c r="C51">
-        <v>440</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
-        <v>45.836242675781989</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="4"/>
-        <v>2100.961142633178</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="5"/>
-        <v>0.10417327880859543</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>409.31658935546801</v>
-      </c>
-      <c r="C52">
-        <v>456</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
-        <v>46.683410644531989</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="4"/>
-        <v>2179.3408294060027</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="5"/>
-        <v>0.10237590053625437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>70</v>
-      </c>
-      <c r="B53">
-        <v>467.973876953125</v>
-      </c>
-      <c r="C53">
-        <v>458</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="3"/>
-        <v>9.973876953125</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="4"/>
-        <v>99.478221476078033</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="5"/>
-        <v>2.1777023915120087E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54">
-        <v>475.17660522460898</v>
-      </c>
-      <c r="C54">
-        <v>463</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="3"/>
-        <v>12.176605224608977</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="4"/>
-        <v>148.26971479597464</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="5"/>
-        <v>2.6299363336088503E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>38</v>
-      </c>
-      <c r="B55">
-        <v>491.37771606445301</v>
-      </c>
-      <c r="C55">
-        <v>476</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="3"/>
-        <v>15.377716064453011</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="4"/>
-        <v>236.47415135893621</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="5"/>
-        <v>3.2306126185825651E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>53</v>
-      </c>
-      <c r="B56">
-        <v>504.84567260742102</v>
-      </c>
-      <c r="C56">
-        <v>489</v>
-      </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="3"/>
-        <v>15.845672607421022</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
-        <v>251.08534038157293</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="5"/>
-        <v>3.2404238460983684E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>54</v>
-      </c>
-      <c r="B57">
-        <v>464.56988525390602</v>
-      </c>
-      <c r="C57">
-        <v>491</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="3"/>
-        <v>26.430114746093977</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="4"/>
-        <v>698.55096549169434</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="5"/>
-        <v>5.3829154269030503E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>51</v>
-      </c>
-      <c r="B58">
-        <v>462.122314453125</v>
-      </c>
-      <c r="C58">
-        <v>494</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="3"/>
-        <v>31.877685546875</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="4"/>
-        <v>1016.1868358254433</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="5"/>
-        <v>6.4529727827682182E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>98</v>
-      </c>
-      <c r="B59">
-        <v>521.03936767578102</v>
-      </c>
-      <c r="C59">
-        <v>497</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="3"/>
-        <v>24.039367675781023</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="4"/>
-        <v>577.8911982513855</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="5"/>
-        <v>4.8368949045837065E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>20</v>
-      </c>
-      <c r="B60">
-        <v>529.01947021484295</v>
-      </c>
-      <c r="C60">
-        <v>501</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="3"/>
-        <v>28.019470214842954</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="4"/>
-        <v>785.0907111204715</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="5"/>
-        <v>5.5927086257171563E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>96</v>
-      </c>
-      <c r="B61">
-        <v>490.80078125</v>
-      </c>
-      <c r="C61">
-        <v>501</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="3"/>
-        <v>10.19921875</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="4"/>
-        <v>104.02406311035156</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="5"/>
-        <v>2.0357722055888223E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>445.64367675781199</v>
-      </c>
-      <c r="C62">
-        <v>506</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="3"/>
-        <v>60.356323242188012</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="4"/>
-        <v>3642.8857553154849</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="5"/>
-        <v>0.11928127122962058</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>13</v>
-      </c>
-      <c r="B63">
-        <v>505.35861206054602</v>
-      </c>
-      <c r="C63">
-        <v>516</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="3"/>
-        <v>10.641387939453978</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="4"/>
-        <v>113.23913727795657</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="5"/>
-        <v>2.0622844843903056E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>46</v>
-      </c>
-      <c r="B64">
-        <v>481.80435180664</v>
-      </c>
-      <c r="C64">
-        <v>524</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
-        <v>42.19564819336</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="4"/>
-        <v>1780.472726457805</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="5"/>
-        <v>8.0526046170534354E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>81</v>
-      </c>
-      <c r="B65">
-        <v>352.86273193359301</v>
-      </c>
-      <c r="C65">
-        <v>526</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
-        <v>173.13726806640699</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="4"/>
-        <v>29976.513593498872</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="5"/>
-        <v>0.32915830430875853</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>55</v>
-      </c>
-      <c r="B66">
-        <v>536.89227294921795</v>
-      </c>
-      <c r="C66">
-        <v>533</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E101" si="6">ABS(B66-C66)</f>
-        <v>3.8922729492179542</v>
-      </c>
-      <c r="F66">
-        <f t="shared" ref="F66:F97" si="7">E66*E66</f>
-        <v>15.149788711213832</v>
-      </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G101" si="8">E66/C66</f>
-        <v>7.3025758897147354E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>4</v>
-      </c>
-      <c r="B67">
-        <v>559.472900390625</v>
-      </c>
-      <c r="C67">
-        <v>542</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="6"/>
-        <v>17.472900390625</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="7"/>
-        <v>305.30224806070328</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="8"/>
-        <v>3.2237823598939112E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>17</v>
-      </c>
-      <c r="B68">
-        <v>475.59210205078102</v>
-      </c>
-      <c r="C68">
-        <v>545</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="6"/>
-        <v>69.407897949218977</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="7"/>
-        <v>4817.4562977291962</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="8"/>
-        <v>0.12735394119122748</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>61</v>
-      </c>
-      <c r="B69">
-        <v>545.86584472656205</v>
-      </c>
-      <c r="C69">
-        <v>546</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="6"/>
-        <v>0.13415527343795475</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="7"/>
-        <v>1.7997637391212407E-2</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="8"/>
-        <v>2.4570562900724313E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="F101">
+        <f>ABS(C101-D101)</f>
+        <v>271.10998535156295</v>
+      </c>
+      <c r="G101">
+        <f>F101*F101</f>
+        <v>73500.624157324681</v>
+      </c>
+      <c r="H101">
+        <f>F101/D101</f>
+        <v>0.29629506595799232</v>
+      </c>
+      <c r="I101" t="s">
         <v>91</v>
       </c>
-      <c r="B70">
-        <v>545.994384765625</v>
-      </c>
-      <c r="C70">
-        <v>547</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="6"/>
-        <v>1.005615234375</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="7"/>
-        <v>1.0112619996070862</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="8"/>
-        <v>1.8384190756398537E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>18</v>
-      </c>
-      <c r="B71">
-        <v>580.007568359375</v>
-      </c>
-      <c r="C71">
-        <v>550</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="6"/>
-        <v>30.007568359375</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="7"/>
-        <v>900.45415884256363</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="8"/>
-        <v>5.4559215198863635E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>567.32861328125</v>
-      </c>
-      <c r="C72">
-        <v>554</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="6"/>
-        <v>13.32861328125</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="7"/>
-        <v>177.65193200111389</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="8"/>
-        <v>2.405886873871841E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>23</v>
-      </c>
-      <c r="B73">
-        <v>559.10919189453102</v>
-      </c>
-      <c r="C73">
-        <v>556</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="6"/>
-        <v>3.1091918945310226</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="7"/>
-        <v>9.6670742370174096</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="8"/>
-        <v>5.5920717527536377E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>75</v>
-      </c>
-      <c r="B74">
-        <v>571.82940673828102</v>
-      </c>
-      <c r="C74">
-        <v>564</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="6"/>
-        <v>7.8294067382810226</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="7"/>
-        <v>61.299609873440282</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="8"/>
-        <v>1.3881926840923799E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>43</v>
-      </c>
-      <c r="B75">
-        <v>605.10339355468705</v>
-      </c>
-      <c r="C75">
-        <v>570</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="6"/>
-        <v>35.103393554687045</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="7"/>
-        <v>1232.2482390552441</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="8"/>
-        <v>6.1584900973135168E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>65</v>
-      </c>
-      <c r="B76">
-        <v>471.01089477539</v>
-      </c>
-      <c r="C76">
-        <v>581</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="6"/>
-        <v>109.98910522461</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="7"/>
-        <v>12097.603268110332</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="8"/>
-        <v>0.18930999178074009</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>68</v>
-      </c>
-      <c r="B77">
-        <v>560.06188964843705</v>
-      </c>
-      <c r="C77">
-        <v>583</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="6"/>
-        <v>22.938110351562955</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="7"/>
-        <v>526.15690650047964</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="8"/>
-        <v>3.9344957721377284E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>94</v>
-      </c>
-      <c r="B78">
-        <v>564.67321777343705</v>
-      </c>
-      <c r="C78">
-        <v>585</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="6"/>
-        <v>20.326782226562955</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="7"/>
-        <v>413.17807568611562</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="8"/>
-        <v>3.4746636284723E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>31</v>
-      </c>
-      <c r="B79">
-        <v>420.29821777343699</v>
-      </c>
-      <c r="C79">
-        <v>589</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="6"/>
-        <v>168.70178222656301</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="7"/>
-        <v>28460.29132641869</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="8"/>
-        <v>0.28642068289739053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>73</v>
-      </c>
-      <c r="B80">
-        <v>515.006591796875</v>
-      </c>
-      <c r="C80">
-        <v>608</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="6"/>
-        <v>92.993408203125</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="7"/>
-        <v>8647.773969233036</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="8"/>
-        <v>0.1529496845446135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>97</v>
-      </c>
-      <c r="B81">
-        <v>474.21463012695301</v>
-      </c>
-      <c r="C81">
-        <v>609</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="6"/>
-        <v>134.78536987304699</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="7"/>
-        <v>18167.095931814081</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="8"/>
-        <v>0.2213224464253645</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>77</v>
-      </c>
-      <c r="B82">
-        <v>584.90557861328102</v>
-      </c>
-      <c r="C82">
-        <v>616</v>
-      </c>
-      <c r="D82" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="6"/>
-        <v>31.094421386718977</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="7"/>
-        <v>966.86304137484649</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="8"/>
-        <v>5.0477956796621717E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>89</v>
-      </c>
-      <c r="B83">
-        <v>557.05474853515602</v>
-      </c>
-      <c r="C83">
-        <v>616</v>
-      </c>
-      <c r="D83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="6"/>
-        <v>58.945251464843977</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="7"/>
-        <v>3474.5426702536911</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="8"/>
-        <v>9.5690343287084381E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>52</v>
-      </c>
-      <c r="B84">
-        <v>593.097900390625</v>
-      </c>
-      <c r="C84">
-        <v>629</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="6"/>
-        <v>35.902099609375</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="7"/>
-        <v>1288.9607563614845</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="8"/>
-        <v>5.7078059792329092E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>45</v>
-      </c>
-      <c r="B85">
-        <v>558.99078369140602</v>
-      </c>
-      <c r="C85">
-        <v>631</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="6"/>
-        <v>72.009216308593977</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="7"/>
-        <v>5185.3272333778768</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="8"/>
-        <v>0.11411920175688428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>76</v>
-      </c>
-      <c r="B86">
-        <v>631.98077392578102</v>
-      </c>
-      <c r="C86">
-        <v>636</v>
-      </c>
-      <c r="D86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="6"/>
-        <v>4.0192260742189774</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="7"/>
-        <v>16.154178235681691</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="8"/>
-        <v>6.319537852545562E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>5</v>
-      </c>
-      <c r="B87">
-        <v>629.01373291015602</v>
-      </c>
-      <c r="C87">
-        <v>649</v>
-      </c>
-      <c r="D87" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="6"/>
-        <v>19.986267089843977</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="7"/>
-        <v>399.45087218658045</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="8"/>
-        <v>3.0795480878033864E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>16</v>
-      </c>
-      <c r="B88">
-        <v>581.14166259765602</v>
-      </c>
-      <c r="C88">
-        <v>650</v>
-      </c>
-      <c r="D88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="6"/>
-        <v>68.858337402343977</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="7"/>
-        <v>4741.4706298150431</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="8"/>
-        <v>0.10593590369591381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>58</v>
-      </c>
-      <c r="B89">
-        <v>672.614013671875</v>
-      </c>
-      <c r="C89">
-        <v>704</v>
-      </c>
-      <c r="D89" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="6"/>
-        <v>31.385986328125</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="7"/>
-        <v>985.08013778924942</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="8"/>
-        <v>4.4582366943359375E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90">
-        <v>611.45562744140602</v>
-      </c>
-      <c r="C90">
-        <v>720</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="6"/>
-        <v>108.54437255859398</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="7"/>
-        <v>11781.880814138849</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="8"/>
-        <v>0.15075607299804719</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>84</v>
-      </c>
-      <c r="B91">
-        <v>661.72100830078102</v>
-      </c>
-      <c r="C91">
-        <v>726</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="6"/>
-        <v>64.278991699218977</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="7"/>
-        <v>4131.7887738682621</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="8"/>
-        <v>8.8538556059530274E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>27</v>
-      </c>
-      <c r="B92">
-        <v>541.23687744140602</v>
-      </c>
-      <c r="C92">
-        <v>729</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="6"/>
-        <v>187.76312255859398</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="7"/>
-        <v>35254.990192953584</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="8"/>
-        <v>0.25756258238490259</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>35</v>
-      </c>
-      <c r="B93">
-        <v>707.217529296875</v>
-      </c>
-      <c r="C93">
-        <v>752</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="6"/>
-        <v>44.782470703125</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="7"/>
-        <v>2005.4696822762489</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="8"/>
-        <v>5.9551157849900269E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>86</v>
-      </c>
-      <c r="B94">
-        <v>735.40167236328102</v>
-      </c>
-      <c r="C94">
-        <v>762</v>
-      </c>
-      <c r="D94" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="6"/>
-        <v>26.598327636718977</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="7"/>
-        <v>707.4710330702485</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="8"/>
-        <v>3.49059417804711E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>88</v>
-      </c>
-      <c r="B95">
-        <v>736.35125732421795</v>
-      </c>
-      <c r="C95">
-        <v>765</v>
-      </c>
-      <c r="D95" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="6"/>
-        <v>28.648742675782046</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="7"/>
-        <v>820.7504569031754</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="8"/>
-        <v>3.7449336831087643E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>34</v>
-      </c>
-      <c r="B96">
-        <v>756.0458984375</v>
-      </c>
-      <c r="C96">
-        <v>778</v>
-      </c>
-      <c r="D96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="6"/>
-        <v>21.9541015625</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="7"/>
-        <v>481.98257541656494</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="8"/>
-        <v>2.8218639540488432E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>87</v>
-      </c>
-      <c r="B97">
-        <v>757.87145996093705</v>
-      </c>
-      <c r="C97">
-        <v>801</v>
-      </c>
-      <c r="D97" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="6"/>
-        <v>43.128540039062955</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="7"/>
-        <v>1860.0709659010565</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="8"/>
-        <v>5.3843370835284586E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>14</v>
-      </c>
-      <c r="B98">
-        <v>756.747802734375</v>
-      </c>
-      <c r="C98">
-        <v>851</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="6"/>
-        <v>94.252197265625</v>
-      </c>
-      <c r="F98">
-        <f t="shared" ref="F98:F101" si="9">E98*E98</f>
-        <v>8883.4766893982887</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="8"/>
-        <v>0.11075463838498825</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>24</v>
-      </c>
-      <c r="B99">
-        <v>773.03082275390602</v>
-      </c>
-      <c r="C99">
-        <v>898</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="6"/>
-        <v>124.96917724609398</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="9"/>
-        <v>15617.295261565652</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="8"/>
-        <v>0.13916389448340086</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>28</v>
-      </c>
-      <c r="B100">
-        <v>849.87170410156205</v>
-      </c>
-      <c r="C100">
-        <v>908</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="6"/>
-        <v>58.128295898437955</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="9"/>
-        <v>3378.8987840563586</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="8"/>
-        <v>6.4017947024711405E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>69</v>
-      </c>
-      <c r="B101">
-        <v>643.89001464843705</v>
-      </c>
-      <c r="C101">
-        <v>915</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="6"/>
-        <v>271.10998535156295</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="9"/>
-        <v>73500.624157324681</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="8"/>
-        <v>0.29629506595799232</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101" xr:uid="{3E2BAD91-A291-4860-8918-CE34214E9DEC}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:I101" xr:uid="{2F19BF8C-5684-4E70-8AC5-BFB470D31DAD}">
+    <filterColumn colId="4">
       <filters>
         <filter val="False"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:G101">
-      <sortCondition ref="C1"/>
+    <sortState ref="A4:I101">
+      <sortCondition ref="D1:D101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350CF0DF-5E0A-4D40-B9F3-C33D8BFEC216}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1">
+        <f>CORREL(A2:A35,B2:B35)</f>
+        <v>0.57800267954535578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>2641.8825115544864</v>
+      </c>
+      <c r="C2">
+        <v>0.45486058598070794</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2">
+        <f>CORREL(A2:A35,C2:C35)</f>
+        <v>-3.0927640189744112E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>188</v>
+      </c>
+      <c r="B3">
+        <v>6029.7632629013406</v>
+      </c>
+      <c r="C3">
+        <v>0.41304016113280856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4">
+        <v>496.14952182769775</v>
+      </c>
+      <c r="C4">
+        <v>0.11081798041044776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>244</v>
+      </c>
+      <c r="B5">
+        <v>0.16045931354185569</v>
+      </c>
+      <c r="C5">
+        <v>1.6416956166762533E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>244</v>
+      </c>
+      <c r="B6">
+        <v>6222.2044192635758</v>
+      </c>
+      <c r="C6">
+        <v>0.32328258576940155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>271</v>
+      </c>
+      <c r="B7">
+        <v>25.936341285705566</v>
+      </c>
+      <c r="C7">
+        <v>1.8792521909594097E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>340</v>
+      </c>
+      <c r="B8">
+        <v>219.56839934082038</v>
+      </c>
+      <c r="C8">
+        <v>4.3581884047561831E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>196.47966322395632</v>
+      </c>
+      <c r="C9">
+        <v>4.0048915318080032E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>357</v>
+      </c>
+      <c r="B10">
+        <v>27.269444637938413</v>
+      </c>
+      <c r="C10">
+        <v>1.4627494064033615E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>367</v>
+      </c>
+      <c r="B11">
+        <v>500.28561593589876</v>
+      </c>
+      <c r="C11">
+        <v>6.0945682369719312E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>752.74272336068577</v>
+      </c>
+      <c r="C12">
+        <v>6.8590393066407532E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>406</v>
+      </c>
+      <c r="B13">
+        <v>530.56781031188996</v>
+      </c>
+      <c r="C13">
+        <v>5.6734132062036917E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>408</v>
+      </c>
+      <c r="B14">
+        <v>9652.744677298826</v>
+      </c>
+      <c r="C14">
+        <v>0.24080485923617648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>410</v>
+      </c>
+      <c r="B15">
+        <v>139.07195258977279</v>
+      </c>
+      <c r="C15">
+        <v>2.8763115115280489E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>412</v>
+      </c>
+      <c r="B16">
+        <v>1742.4841025555838</v>
+      </c>
+      <c r="C16">
+        <v>0.10131813715962627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>419</v>
+      </c>
+      <c r="B17">
+        <v>176.46132204309711</v>
+      </c>
+      <c r="C17">
+        <v>3.1703757784532167E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>476</v>
+      </c>
+      <c r="B18">
+        <v>236.47415135893621</v>
+      </c>
+      <c r="C18">
+        <v>3.2306126185825651E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>491</v>
+      </c>
+      <c r="B19">
+        <v>698.55096549169434</v>
+      </c>
+      <c r="C19">
+        <v>5.3829154269030503E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>494</v>
+      </c>
+      <c r="B20">
+        <v>1016.1868358254433</v>
+      </c>
+      <c r="C20">
+        <v>6.4529727827682182E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>506</v>
+      </c>
+      <c r="B21">
+        <v>3642.8857553154849</v>
+      </c>
+      <c r="C21">
+        <v>0.11928127122962058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>524</v>
+      </c>
+      <c r="B22">
+        <v>1780.472726457805</v>
+      </c>
+      <c r="C22">
+        <v>8.0526046170534354E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>526</v>
+      </c>
+      <c r="B23">
+        <v>29976.513593498872</v>
+      </c>
+      <c r="C23">
+        <v>0.32915830430875853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>545</v>
+      </c>
+      <c r="B24">
+        <v>4817.4562977291962</v>
+      </c>
+      <c r="C24">
+        <v>0.12735394119122748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>581</v>
+      </c>
+      <c r="B25">
+        <v>12097.603268110332</v>
+      </c>
+      <c r="C25">
+        <v>0.18930999178074009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>585</v>
+      </c>
+      <c r="B26">
+        <v>413.17807568611562</v>
+      </c>
+      <c r="C26">
+        <v>3.4746636284723E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>589</v>
+      </c>
+      <c r="B27">
+        <v>28460.29132641869</v>
+      </c>
+      <c r="C27">
+        <v>0.28642068289739053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>608</v>
+      </c>
+      <c r="B28">
+        <v>8647.773969233036</v>
+      </c>
+      <c r="C28">
+        <v>0.1529496845446135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>609</v>
+      </c>
+      <c r="B29">
+        <v>18167.095931814081</v>
+      </c>
+      <c r="C29">
+        <v>0.2213224464253645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>629</v>
+      </c>
+      <c r="B30">
+        <v>1288.9607563614845</v>
+      </c>
+      <c r="C30">
+        <v>5.7078059792329092E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>720</v>
+      </c>
+      <c r="B31">
+        <v>11781.880814138849</v>
+      </c>
+      <c r="C31">
+        <v>0.15075607299804719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>726</v>
+      </c>
+      <c r="B32">
+        <v>4131.7887738682621</v>
+      </c>
+      <c r="C32">
+        <v>8.8538556059530274E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>729</v>
+      </c>
+      <c r="B33">
+        <v>35254.990192953584</v>
+      </c>
+      <c r="C33">
+        <v>0.25756258238490259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>752</v>
+      </c>
+      <c r="B34">
+        <v>2005.4696822762489</v>
+      </c>
+      <c r="C34">
+        <v>5.9551157849900269E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>915</v>
+      </c>
+      <c r="B35">
+        <v>73500.624157324681</v>
+      </c>
+      <c r="C35">
+        <v>0.29629506595799232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085BEBE3-41FF-47CB-AECD-298382C30E80}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -11542,7 +16042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071AE6AE-F348-481A-AB7F-46A51F390912}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -14178,7 +18678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF54514-79EE-4530-B60A-E3F2E5C44E36}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -16521,12 +21021,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C43F930-C379-4792-8FD8-503A700A331E}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G101"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19157,7 +23657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07B171-4A6B-4B4D-B1EC-2986CEA2FA36}">
   <dimension ref="A1:G101"/>
   <sheetViews>
